--- a/biology/Zoologie/Dendrocygne_tacheté/Dendrocygne_tacheté.xlsx
+++ b/biology/Zoologie/Dendrocygne_tacheté/Dendrocygne_tacheté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dendrocygne_tachet%C3%A9</t>
+          <t>Dendrocygne_tacheté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendrocygna guttata
 Le Dendrocygne tacheté (Dendrocygna guttata) est une espèce d'oiseau appartenant à la famille des anatidés. C'est l'espèce la moins connue du groupe des dendrocygnes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dendrocygne_tachet%C3%A9</t>
+          <t>Dendrocygne_tacheté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau mesure entre 43 et 50 cm[1]. La tête est grise avec une calotte noire et le tour des yeux noirâtre, le bec est rougeâtre. Le dessous du corps est tacheté de blanchâtre, le reste du plumage est brun foncé. Les pattes sont nuancées de rose.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau mesure entre 43 et 50 cm. La tête est grise avec une calotte noire et le tour des yeux noirâtre, le bec est rougeâtre. Le dessous du corps est tacheté de blanchâtre, le reste du plumage est brun foncé. Les pattes sont nuancées de rose.
 Le plumage des jeunes est plus terne avec les côtés de la poitrine plus rayés que tachetés.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dendrocygne_tachet%C3%A9</t>
+          <t>Dendrocygne_tacheté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre cette espèce en Indonésie, aux Philippines (Mindanao) et en Nouvelle-Guinée. Elle fréquente les lacs et les marais généralement boisés.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dendrocygne_tachet%C3%A9</t>
+          <t>Dendrocygne_tacheté</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un des dendrocygnes qui se perche le plus souvent dans les arbres. Il vit en couples ou en petits groupes se nourrissant surtout le jour. La reproduction peut avoir lieu toute l'année, le nid est situé dans un arbre creux
 Cette espèce est souvent associée au Dendrocygne à lunules.
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dendrocygne_tachet%C3%A9</t>
+          <t>Dendrocygne_tacheté</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Populations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que mal connu, le Dendrocygne tacheté ne semble pas menacé, on estime entre 10 000 et 25 000 le nombre d'individus.
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dendrocygne_tachet%C3%A9</t>
+          <t>Dendrocygne_tacheté</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
